--- a/20_Projektvereinbarung/Zeitplanung.xlsx
+++ b/20_Projektvereinbarung/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marchochuli/Documents/GitHub/GEM/20_Projektvereinbarung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B27A30-6D38-6848-8550-6C2E34FF5882}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D09E15-E2F7-2244-85A6-F689A8E68F0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{AF0B4155-E384-7D4E-8936-62D503C410F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Präsentation</t>
+  </si>
+  <si>
+    <t>CAD Zeichnen</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -353,17 +356,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -375,13 +400,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -696,101 +725,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA7AE7-BF07-DB47-8F7C-D55CCEF0D930}">
-  <dimension ref="C5:O20"/>
+  <dimension ref="C5:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="15" width="8.33203125" customWidth="1"/>
+    <col min="4" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:14" ht="19" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>43409</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43416</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43423</v>
-      </c>
-      <c r="G6" s="7">
-        <v>43428</v>
-      </c>
-      <c r="H6" s="7">
-        <v>43430</v>
-      </c>
-      <c r="I6" s="7">
-        <v>43433</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="D6" s="4">
+        <v>43404</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43418</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43432</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43439</v>
+      </c>
+      <c r="H6" s="5">
         <v>43446</v>
       </c>
-      <c r="K6" s="7">
-        <v>43449</v>
-      </c>
-      <c r="L6" s="7">
-        <v>43456</v>
-      </c>
-      <c r="M6" s="7">
-        <v>43472</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="I6" s="5">
+        <v>43453</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43474</v>
+      </c>
+      <c r="K6" s="5">
+        <v>43481</v>
+      </c>
+      <c r="L6" s="5">
+        <v>43488</v>
+      </c>
+      <c r="M6" s="5">
         <v>43497</v>
       </c>
-      <c r="O6" s="8">
+      <c r="N6" s="6">
         <v>43516</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -798,16 +822,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -815,133 +838,125 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="19"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="16"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="20"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -949,16 +964,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="20"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="19"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -966,27 +980,41 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="1"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/20_Projektvereinbarung/Zeitplanung.xlsx
+++ b/20_Projektvereinbarung/Zeitplanung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marchochuli/Documents/GitHub/GEM/20_Projektvereinbarung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\20_Projektvereinbarung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D09E15-E2F7-2244-85A6-F689A8E68F0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{AF0B4155-E384-7D4E-8936-62D503C410F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -724,21 +723,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA7AE7-BF07-DB47-8F7C-D55CCEF0D930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G12" sqref="D8:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="14" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="14" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +775,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +791,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
@@ -808,7 +807,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
@@ -824,7 +823,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
@@ -840,7 +839,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
@@ -856,7 +855,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
@@ -872,7 +871,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -888,7 +887,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="25" t="s">
         <v>6</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -920,7 +919,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
@@ -936,7 +935,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
@@ -952,7 +951,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
@@ -968,7 +967,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
@@ -984,7 +983,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +999,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
